--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H2">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I2">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J2">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.198467105773</v>
+        <v>0.05004761113333333</v>
       </c>
       <c r="R2">
-        <v>1.786203951957</v>
+        <v>0.4504285002</v>
       </c>
       <c r="S2">
-        <v>7.304851735401894E-06</v>
+        <v>2.635635094810434E-06</v>
       </c>
       <c r="T2">
-        <v>7.304851735401896E-06</v>
+        <v>2.635635094810434E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H3">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I3">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J3">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.06758439261733333</v>
+        <v>0.02066109142</v>
       </c>
       <c r="R3">
-        <v>0.6082595335559999</v>
+        <v>0.18594982278</v>
       </c>
       <c r="S3">
-        <v>2.487535482386089E-06</v>
+        <v>1.088065871886738E-06</v>
       </c>
       <c r="T3">
-        <v>2.487535482386089E-06</v>
+        <v>1.088065871886738E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H4">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I4">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J4">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>11.51826491241711</v>
+        <v>13.73262748236333</v>
       </c>
       <c r="R4">
-        <v>103.664384211754</v>
+        <v>123.59364734127</v>
       </c>
       <c r="S4">
-        <v>0.0004239454044869506</v>
+        <v>0.0007231952558144888</v>
       </c>
       <c r="T4">
-        <v>0.0004239454044869506</v>
+        <v>0.0007231952558144888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H5">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I5">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J5">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.2114765296134444</v>
+        <v>0.086537664365</v>
       </c>
       <c r="R5">
-        <v>1.903288766521</v>
+        <v>0.778838979285</v>
       </c>
       <c r="S5">
-        <v>7.78368127215215E-06</v>
+        <v>4.557294545301693E-06</v>
       </c>
       <c r="T5">
-        <v>7.783681272152151E-06</v>
+        <v>4.557294545301693E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H6">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I6">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J6">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>26.37647741720889</v>
+        <v>9.653014430131666</v>
       </c>
       <c r="R6">
-        <v>237.38829675488</v>
+        <v>86.87712987118501</v>
       </c>
       <c r="S6">
-        <v>0.0009708221223080861</v>
+        <v>0.0005083524073703786</v>
       </c>
       <c r="T6">
-        <v>0.0009708221223080862</v>
+        <v>0.0005083524073703785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H7">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I7">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J7">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>0.009108452593999998</v>
+        <v>0.007513331902222222</v>
       </c>
       <c r="R7">
-        <v>0.08197607334599999</v>
+        <v>0.06761998712</v>
       </c>
       <c r="S7">
-        <v>3.352489848580163E-07</v>
+        <v>3.956712576690136E-07</v>
       </c>
       <c r="T7">
-        <v>3.352489848580163E-07</v>
+        <v>3.956712576690136E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H8">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I8">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J8">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
-        <v>0.003101719218666666</v>
+        <v>0.003101719218666667</v>
       </c>
       <c r="R8">
-        <v>0.02791547296799999</v>
+        <v>0.027915472968</v>
       </c>
       <c r="S8">
-        <v>1.14162994058681E-07</v>
+        <v>1.633444602418006E-07</v>
       </c>
       <c r="T8">
-        <v>1.14162994058681E-07</v>
+        <v>1.633444602418006E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H9">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I9">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J9">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>0.5286194380235555</v>
+        <v>2.061592668023556</v>
       </c>
       <c r="R9">
-        <v>4.757574942211999</v>
+        <v>18.554334012212</v>
       </c>
       <c r="S9">
-        <v>1.945655731801814E-05</v>
+        <v>0.0001085687381275987</v>
       </c>
       <c r="T9">
-        <v>1.945655731801815E-05</v>
+        <v>0.0001085687381275987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H10">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I10">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J10">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>0.009705507304222221</v>
+        <v>0.01299135322733334</v>
       </c>
       <c r="R10">
-        <v>0.087349565738</v>
+        <v>0.116922179046</v>
       </c>
       <c r="S10">
-        <v>3.572243954385741E-07</v>
+        <v>6.841578592795865E-07</v>
       </c>
       <c r="T10">
-        <v>3.572243954385742E-07</v>
+        <v>6.841578592795864E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H11">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I11">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J11">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>1.210522485404444</v>
+        <v>1.449146115631778</v>
       </c>
       <c r="R11">
-        <v>10.89470236864</v>
+        <v>13.042315040686</v>
       </c>
       <c r="S11">
-        <v>4.455492633808869E-05</v>
+        <v>7.631573762215946E-05</v>
       </c>
       <c r="T11">
-        <v>4.45549263380887E-05</v>
+        <v>7.631573762215946E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H12">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I12">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J12">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>57.61799853487099</v>
+        <v>24.31471496527111</v>
       </c>
       <c r="R12">
-        <v>518.561986813839</v>
+        <v>218.83243468744</v>
       </c>
       <c r="S12">
-        <v>0.002120708794278671</v>
+        <v>0.001280475024313368</v>
       </c>
       <c r="T12">
-        <v>0.002120708794278671</v>
+        <v>0.001280475024313368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H13">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I13">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J13">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>19.62076999933467</v>
+        <v>10.03781274215733</v>
       </c>
       <c r="R13">
-        <v>176.586929994012</v>
+        <v>90.340314679416</v>
       </c>
       <c r="S13">
-        <v>0.0007221691232979115</v>
+        <v>0.0005286168698018967</v>
       </c>
       <c r="T13">
-        <v>0.0007221691232979116</v>
+        <v>0.0005286168698018967</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H14">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I14">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J14">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>3343.926280695484</v>
+        <v>6671.745471893694</v>
       </c>
       <c r="R14">
-        <v>30095.33652625935</v>
+        <v>60045.70924704324</v>
       </c>
       <c r="S14">
-        <v>0.1230777543686915</v>
+        <v>0.351351165643427</v>
       </c>
       <c r="T14">
-        <v>0.1230777543686915</v>
+        <v>0.3513511656434269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H15">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I15">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J15">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>61.39483077545189</v>
+        <v>42.04273880704467</v>
       </c>
       <c r="R15">
-        <v>552.553476979067</v>
+        <v>378.384649263402</v>
       </c>
       <c r="S15">
-        <v>0.002259720241235955</v>
+        <v>0.0022140780623192</v>
       </c>
       <c r="T15">
-        <v>0.002259720241235956</v>
+        <v>0.0022140780623192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H16">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I16">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J16">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>7657.489795402418</v>
+        <v>4689.740211555787</v>
       </c>
       <c r="R16">
-        <v>68917.40815862177</v>
+        <v>42207.66190400208</v>
       </c>
       <c r="S16">
-        <v>0.2818443258035229</v>
+        <v>0.2469737037835895</v>
       </c>
       <c r="T16">
-        <v>0.281844325803523</v>
+        <v>0.2469737037835894</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H17">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I17">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J17">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>0.08044462675299999</v>
+        <v>0.04513328848</v>
       </c>
       <c r="R17">
-        <v>0.7240016407769999</v>
+        <v>0.40619959632</v>
       </c>
       <c r="S17">
-        <v>2.96087388915989E-06</v>
+        <v>2.376834305740992E-06</v>
       </c>
       <c r="T17">
-        <v>2.96087388915989E-06</v>
+        <v>2.376834305740992E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H18">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I18">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J18">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.02739396645733333</v>
+        <v>0.018632317872</v>
       </c>
       <c r="R18">
-        <v>0.246545698116</v>
+        <v>0.167690860848</v>
       </c>
       <c r="S18">
-        <v>1.008272190174781E-06</v>
+        <v>9.812254724861252E-07</v>
       </c>
       <c r="T18">
-        <v>1.008272190174782E-06</v>
+        <v>9.812254724861252E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H19">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I19">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J19">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>4.66869569197711</v>
+        <v>12.384180257848</v>
       </c>
       <c r="R19">
-        <v>42.01826122779399</v>
+        <v>111.457622320632</v>
       </c>
       <c r="S19">
-        <v>0.0001718376941849976</v>
+        <v>0.0006521825791262053</v>
       </c>
       <c r="T19">
-        <v>0.0001718376941849976</v>
+        <v>0.0006521825791262053</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H20">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I20">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J20">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>0.08571773355344443</v>
+        <v>0.07804027568400002</v>
       </c>
       <c r="R20">
-        <v>0.7714596019809999</v>
+        <v>0.7023624811560001</v>
       </c>
       <c r="S20">
-        <v>3.154957756167268E-06</v>
+        <v>4.10980034298657E-06</v>
       </c>
       <c r="T20">
-        <v>3.154957756167268E-06</v>
+        <v>4.109800342986569E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H21">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I21">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J21">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>10.69117158040889</v>
+        <v>8.705156452244001</v>
       </c>
       <c r="R21">
-        <v>96.22054422368001</v>
+        <v>78.34640807019601</v>
       </c>
       <c r="S21">
-        <v>0.0003935031095881174</v>
+        <v>0.0004584357840821814</v>
       </c>
       <c r="T21">
-        <v>0.0003935031095881174</v>
+        <v>0.0004584357840821813</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H22">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I22">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J22">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>82.61722678171999</v>
+        <v>15.94914531239556</v>
       </c>
       <c r="R22">
-        <v>743.55504103548</v>
+        <v>143.54230781156</v>
       </c>
       <c r="S22">
-        <v>0.003040839387867175</v>
+        <v>0.0008399227488718964</v>
       </c>
       <c r="T22">
-        <v>0.003040839387867176</v>
+        <v>0.0008399227488718962</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H23">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I23">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J23">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>28.13380620442667</v>
+        <v>6.584265300742667</v>
       </c>
       <c r="R23">
-        <v>253.20425583984</v>
+        <v>59.258387706684</v>
       </c>
       <c r="S23">
-        <v>0.001035502998219392</v>
+        <v>0.000346744236282275</v>
       </c>
       <c r="T23">
-        <v>0.001035502998219392</v>
+        <v>0.000346744236282275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H24">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I24">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J24">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>4794.785013338728</v>
+        <v>4376.306206777823</v>
       </c>
       <c r="R24">
-        <v>43153.06512004855</v>
+        <v>39386.75586100041</v>
       </c>
       <c r="S24">
-        <v>0.1764785831342099</v>
+        <v>0.2304674681373176</v>
       </c>
       <c r="T24">
-        <v>0.1764785831342099</v>
+        <v>0.2304674681373175</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H25">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I25">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J25">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>88.03274647471555</v>
+        <v>27.57777549613034</v>
       </c>
       <c r="R25">
-        <v>792.29471827244</v>
+        <v>248.199979465173</v>
       </c>
       <c r="S25">
-        <v>0.003240164955060807</v>
+        <v>0.001452316130349603</v>
       </c>
       <c r="T25">
-        <v>0.003240164955060808</v>
+        <v>0.001452316130349602</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H26">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I26">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J26">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>10979.91230331591</v>
+        <v>3076.217353085222</v>
       </c>
       <c r="R26">
-        <v>98819.21072984321</v>
+        <v>27685.956177767</v>
       </c>
       <c r="S26">
-        <v>0.4041306045706914</v>
+        <v>0.1620014668323744</v>
       </c>
       <c r="T26">
-        <v>0.4041306045706915</v>
+        <v>0.1620014668323743</v>
       </c>
     </row>
   </sheetData>
